--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.881601</v>
+        <v>0.6151236666666667</v>
       </c>
       <c r="H2">
-        <v>2.644803</v>
+        <v>1.845371</v>
       </c>
       <c r="I2">
-        <v>0.02072192623875441</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="J2">
-        <v>0.02072192623875442</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>19.699182449849</v>
+        <v>11.81846471150523</v>
       </c>
       <c r="R2">
-        <v>177.292642048641</v>
+        <v>106.366182403547</v>
       </c>
       <c r="S2">
-        <v>0.000656032315300408</v>
+        <v>0.0006702423658136397</v>
       </c>
       <c r="T2">
-        <v>0.0006560323153004084</v>
+        <v>0.0006702423658136396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.881601</v>
+        <v>0.6151236666666667</v>
       </c>
       <c r="H3">
-        <v>2.644803</v>
+        <v>1.845371</v>
       </c>
       <c r="I3">
-        <v>0.02072192623875441</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="J3">
-        <v>0.02072192623875442</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>81.50148284286399</v>
+        <v>56.86641798849245</v>
       </c>
       <c r="R3">
-        <v>733.5133455857759</v>
+        <v>511.797761896432</v>
       </c>
       <c r="S3">
-        <v>0.002714204339491785</v>
+        <v>0.003224977478745645</v>
       </c>
       <c r="T3">
-        <v>0.002714204339491785</v>
+        <v>0.003224977478745645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.881601</v>
+        <v>0.6151236666666667</v>
       </c>
       <c r="H4">
-        <v>2.644803</v>
+        <v>1.845371</v>
       </c>
       <c r="I4">
-        <v>0.02072192623875441</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="J4">
-        <v>0.02072192623875442</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>215.07945295662</v>
+        <v>102.6383057978728</v>
       </c>
       <c r="R4">
-        <v>1935.71507660958</v>
+        <v>923.7447521808549</v>
       </c>
       <c r="S4">
-        <v>0.007162686667626564</v>
+        <v>0.00582076797454925</v>
       </c>
       <c r="T4">
-        <v>0.007162686667626566</v>
+        <v>0.00582076797454925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.881601</v>
+        <v>0.6151236666666667</v>
       </c>
       <c r="H5">
-        <v>2.644803</v>
+        <v>1.845371</v>
       </c>
       <c r="I5">
-        <v>0.02072192623875441</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="J5">
-        <v>0.02072192623875442</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>57.708478006459</v>
+        <v>25.28106353562533</v>
       </c>
       <c r="R5">
-        <v>519.3763020581309</v>
+        <v>227.529571820628</v>
       </c>
       <c r="S5">
-        <v>0.00192183744352955</v>
+        <v>0.001433725974398952</v>
       </c>
       <c r="T5">
-        <v>0.00192183744352955</v>
+        <v>0.001433725974398952</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.881601</v>
+        <v>0.6151236666666667</v>
       </c>
       <c r="H6">
-        <v>2.644803</v>
+        <v>1.845371</v>
       </c>
       <c r="I6">
-        <v>0.02072192623875441</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="J6">
-        <v>0.02072192623875442</v>
+        <v>0.01505763605988265</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>248.244480025843</v>
+        <v>68.90886604041123</v>
       </c>
       <c r="R6">
-        <v>2234.200320232587</v>
+        <v>620.179794363701</v>
       </c>
       <c r="S6">
-        <v>0.008267165472806108</v>
+        <v>0.003907922266375164</v>
       </c>
       <c r="T6">
-        <v>0.00826716547280611</v>
+        <v>0.003907922266375164</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>111.825123</v>
       </c>
       <c r="I7">
-        <v>0.8761453879346173</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="J7">
-        <v>0.8761453879346174</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>832.9026776110754</v>
+        <v>716.1710409642457</v>
       </c>
       <c r="R7">
-        <v>7496.12409849968</v>
+        <v>6445.539368678211</v>
       </c>
       <c r="S7">
-        <v>0.02773775375725259</v>
+        <v>0.04061510395303776</v>
       </c>
       <c r="T7">
-        <v>0.02773775375725259</v>
+        <v>0.04061510395303775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>111.825123</v>
       </c>
       <c r="I8">
-        <v>0.8761453879346173</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="J8">
-        <v>0.8761453879346174</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>3445.970585932357</v>
@@ -948,10 +948,10 @@
         <v>31013.73527339121</v>
       </c>
       <c r="S8">
-        <v>0.1147594864762338</v>
+        <v>0.1954260163582074</v>
       </c>
       <c r="T8">
-        <v>0.1147594864762338</v>
+        <v>0.1954260163582074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>111.825123</v>
       </c>
       <c r="I9">
-        <v>0.8761453879346173</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="J9">
-        <v>0.8761453879346174</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>9093.791213049419</v>
+        <v>6219.638853303067</v>
       </c>
       <c r="R9">
-        <v>81844.12091744477</v>
+        <v>55976.7496797276</v>
       </c>
       <c r="S9">
-        <v>0.3028461165605909</v>
+        <v>0.3527247879740337</v>
       </c>
       <c r="T9">
-        <v>0.302846116560591</v>
+        <v>0.3527247879740337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>111.825123</v>
       </c>
       <c r="I10">
-        <v>0.8761453879346173</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="J10">
-        <v>0.8761453879346174</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>2439.976683032752</v>
+        <v>1531.972724965396</v>
       </c>
       <c r="R10">
-        <v>21959.79014729477</v>
+        <v>13787.75452468856</v>
       </c>
       <c r="S10">
-        <v>0.08125735962515827</v>
+        <v>0.08688040694009912</v>
       </c>
       <c r="T10">
-        <v>0.08125735962515829</v>
+        <v>0.08688040694009912</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>111.825123</v>
       </c>
       <c r="I11">
-        <v>0.8761453879346173</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="J11">
-        <v>0.8761453879346174</v>
+        <v>0.9124571722898065</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>10496.04432275709</v>
+        <v>4175.714488175823</v>
       </c>
       <c r="R11">
-        <v>94464.39890481386</v>
+        <v>37581.43039358241</v>
       </c>
       <c r="S11">
-        <v>0.3495446715153818</v>
+        <v>0.2368108570644284</v>
       </c>
       <c r="T11">
-        <v>0.3495446715153818</v>
+        <v>0.2368108570644284</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.387713666666667</v>
+        <v>2.961112666666666</v>
       </c>
       <c r="H12">
-        <v>13.163141</v>
+        <v>8.883337999999998</v>
       </c>
       <c r="I12">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031087</v>
       </c>
       <c r="J12">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031085</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>98.04250682265854</v>
+        <v>56.89230874082956</v>
       </c>
       <c r="R12">
-        <v>882.382561403927</v>
+        <v>512.0307786674659</v>
       </c>
       <c r="S12">
-        <v>0.003265062035567764</v>
+        <v>0.003226445781060939</v>
       </c>
       <c r="T12">
-        <v>0.003265062035567765</v>
+        <v>0.003226445781060938</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.387713666666667</v>
+        <v>2.961112666666666</v>
       </c>
       <c r="H13">
-        <v>13.163141</v>
+        <v>8.883337999999998</v>
       </c>
       <c r="I13">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031087</v>
       </c>
       <c r="J13">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031085</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>405.6315386702524</v>
+        <v>273.7463696140551</v>
       </c>
       <c r="R13">
-        <v>3650.683848032272</v>
+        <v>2463.717326526496</v>
       </c>
       <c r="S13">
-        <v>0.01350855032436905</v>
+        <v>0.01552455575929468</v>
       </c>
       <c r="T13">
-        <v>0.01350855032436905</v>
+        <v>0.01552455575929467</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.387713666666667</v>
+        <v>2.961112666666666</v>
       </c>
       <c r="H14">
-        <v>13.163141</v>
+        <v>8.883337999999998</v>
       </c>
       <c r="I14">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031087</v>
       </c>
       <c r="J14">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031085</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>1070.44689735714</v>
+        <v>494.0853422698543</v>
       </c>
       <c r="R14">
-        <v>9634.02207621426</v>
+        <v>4446.768080428688</v>
       </c>
       <c r="S14">
-        <v>0.03564857365360997</v>
+        <v>0.02802030016592673</v>
       </c>
       <c r="T14">
-        <v>0.03564857365360997</v>
+        <v>0.02802030016592673</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.387713666666667</v>
+        <v>2.961112666666666</v>
       </c>
       <c r="H15">
-        <v>13.163141</v>
+        <v>8.883337999999998</v>
       </c>
       <c r="I15">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031087</v>
       </c>
       <c r="J15">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031085</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>287.2141452102175</v>
+        <v>121.6992314209093</v>
       </c>
       <c r="R15">
-        <v>2584.927306891957</v>
+        <v>1095.293082788184</v>
       </c>
       <c r="S15">
-        <v>0.009564953324787897</v>
+        <v>0.006901740858594417</v>
       </c>
       <c r="T15">
-        <v>0.009564953324787897</v>
+        <v>0.006901740858594415</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.387713666666667</v>
+        <v>2.961112666666666</v>
       </c>
       <c r="H16">
-        <v>13.163141</v>
+        <v>8.883337999999998</v>
       </c>
       <c r="I16">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031087</v>
       </c>
       <c r="J16">
-        <v>0.1031326858266283</v>
+        <v>0.07248519165031085</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>1235.508691215132</v>
+        <v>331.7169004138975</v>
       </c>
       <c r="R16">
-        <v>11119.57822093619</v>
+        <v>2985.452103725077</v>
       </c>
       <c r="S16">
-        <v>0.04114554648829364</v>
+        <v>0.0188121490854341</v>
       </c>
       <c r="T16">
-        <v>0.04114554648829364</v>
+        <v>0.0188121490854341</v>
       </c>
     </row>
   </sheetData>
